--- a/migforecasting/cities19-21/3/d3.xlsx
+++ b/migforecasting/cities19-21/3/d3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>НАСЕЛЕНИЕ</t>
   </si>
@@ -111,21 +111,12 @@
     <t>Число больничных коек круглосуточных стационаров:</t>
   </si>
   <si>
-    <t>Число амбулаторно-поликлинических организаций</t>
-  </si>
-  <si>
-    <t>Мощность амбулаторно-поликлинических организаций,  посещений в смену:</t>
-  </si>
-  <si>
     <t>добыча полезных ископаемых</t>
   </si>
   <si>
     <t>Число построенных квартир (включая квартиры в общежитиях)</t>
   </si>
   <si>
-    <t>Число родившихся на 1 000 человек населения</t>
-  </si>
-  <si>
     <t>Число умерших на 1 000 человек населения</t>
   </si>
   <si>
@@ -158,27 +149,9 @@
     </r>
   </si>
   <si>
-    <t>Инвестиции в основной капитал (в фактически  действовавших ценах), млн руб.</t>
-  </si>
-  <si>
-    <t>больничных организаций, коек</t>
-  </si>
-  <si>
-    <t>Оборот розничной торговли (в фактически действовавших ценах), млн руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оборот общественного питания (в фактически  действовавших ценах), млн руб. </t>
-  </si>
-  <si>
-    <t>Индекс физического объема оборота общественного  питания, в процентах к предыдущему году</t>
-  </si>
-  <si>
     <t>Миграционный прирост, убыль (-) населения, человек</t>
   </si>
   <si>
-    <t>Численность пенсионеров, тыс. человек</t>
-  </si>
-  <si>
     <r>
       <t>Общая площадь жилых помещений, приходящаяся  в среднем на одного городского жителя (на конец года), м</t>
     </r>
@@ -195,15 +168,23 @@
     </r>
   </si>
   <si>
-    <t>общеобразовательных организаций,  ученических мест</t>
-  </si>
-  <si>
-    <r>
-      <t>СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА г. НАЛЬЧИКА</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Число мест в организациях, осуществляющих  образовательную деятельность по образовательным  программам дошкольного образования, присмотр и уход за детьми, тыс.</t>
+  </si>
+  <si>
+    <t>Численность воспитанников организаций, осуществляющих образовательную деятельность по образовательным  программам дошкольного образования, присмотр и уход  за детьми, тыс. человек</t>
+  </si>
+  <si>
+    <t>обеспечение электрической энергией, газом и паром;  кондиционирование воздуха</t>
+  </si>
+  <si>
+    <t>водоснабжение; водоотведение, организация сбора  и утилизации отходов, деятельность по ликвидации  загрязнений</t>
+  </si>
+  <si>
+    <r>
+      <t>Ввод в действие жилых домов, тыс. м</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="7"/>
         <color theme="1"/>
@@ -211,12 +192,47 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>общей площади жилых помещений</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА  г. ЧЕРКЕССКА </t>
+  </si>
+  <si>
+    <r>
+      <t>трудоспособном</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t>1)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>трудоспособном</t>
+    <t xml:space="preserve">Число родившихся на 1 000 человек населения </t>
+  </si>
+  <si>
+    <t>Естественный прирост, убыль (-) на 1 000 человек населения</t>
+  </si>
+  <si>
+    <r>
+      <t>Среднегодовая численность работников организаций</t>
     </r>
     <r>
       <rPr>
@@ -229,13 +245,29 @@
       </rPr>
       <t>2)</t>
     </r>
-  </si>
-  <si>
-    <t>Естественный прирост на 1 000 человек населения</t>
-  </si>
-  <si>
-    <r>
-      <t>Среднегодовая численность работников организаций</t>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,  тыс. человек</t>
+    </r>
+  </si>
+  <si>
+    <t>Численность незанятых граждан, состоящих на учете  в органах службы занятости населения в целях поиска  подходящей работы (на конец года), человек</t>
+  </si>
+  <si>
+    <t>5 513</t>
+  </si>
+  <si>
+    <t>5 430</t>
+  </si>
+  <si>
+    <r>
+      <t>Среднемесячная номинальная начисленная заработная  плата работников организаций</t>
     </r>
     <r>
       <rPr>
@@ -246,6 +278,41 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>32 035,6</t>
+  </si>
+  <si>
+    <t>37 073,9</t>
+  </si>
+  <si>
+    <t>39 732,7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Средний размер назначенных пенсий </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t>3)</t>
     </r>
     <r>
@@ -256,27 +323,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>,  тыс. человек</t>
-    </r>
-  </si>
-  <si>
-    <t>Численность незанятых граждан, состоящих на учете в органах службы занятости населения в целях поиска подходящей работы, человек</t>
-  </si>
-  <si>
-    <t>16 752</t>
-  </si>
-  <si>
-    <t>2 051</t>
-  </si>
-  <si>
-    <t>16 724</t>
-  </si>
-  <si>
-    <t>2 000</t>
-  </si>
-  <si>
-    <r>
-      <t>Среднемесячная номинальная начисленная не заработная  плата работников организаций</t>
+      <t xml:space="preserve">, руб. </t>
+    </r>
+  </si>
+  <si>
+    <t>13 226,4</t>
+  </si>
+  <si>
+    <t>13 897,8</t>
+  </si>
+  <si>
+    <t>14 563,4</t>
+  </si>
+  <si>
+    <r>
+      <t>Численность пенсионеров</t>
     </r>
     <r>
       <rPr>
@@ -297,74 +358,86 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>, руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>33 201,7</t>
-  </si>
-  <si>
-    <t>35 864,4</t>
-  </si>
-  <si>
-    <t>37 731,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средний размер назначенных пенсий, руб. </t>
-  </si>
-  <si>
-    <t>12 598,4</t>
-  </si>
-  <si>
-    <t>13 218,7</t>
-  </si>
-  <si>
-    <t>13 781,3</t>
-  </si>
-  <si>
-    <t>Число мест в организациях, осуществляющих  образовательную деятельность по образовательным  программам дошкольного образования, присмотр и уход за детьми, тыс.</t>
-  </si>
-  <si>
-    <t>Численность воспитанников организаций, осуществляющих образовательную деятельность по образовательным  программам дошкольного образования, присмотр и уход  за детьми, тыс. человек</t>
-  </si>
-  <si>
-    <t>2 639</t>
-  </si>
-  <si>
-    <t>2 696</t>
-  </si>
-  <si>
-    <t>2 711</t>
-  </si>
-  <si>
-    <t>5 147</t>
-  </si>
-  <si>
-    <t>5 232</t>
-  </si>
-  <si>
-    <t>9 3691</t>
-  </si>
-  <si>
-    <t>51 218</t>
-  </si>
-  <si>
-    <t>83 883</t>
-  </si>
-  <si>
-    <t>89 378</t>
-  </si>
-  <si>
-    <t>50 374</t>
-  </si>
-  <si>
-    <t>82 208</t>
-  </si>
-  <si>
-    <t>4 313</t>
-  </si>
-  <si>
-    <t>1 675</t>
+      <t>, тыс. человек</t>
+    </r>
+  </si>
+  <si>
+    <t>1 196</t>
+  </si>
+  <si>
+    <t>1 115</t>
+  </si>
+  <si>
+    <t>1 142</t>
+  </si>
+  <si>
+    <t>2 707</t>
+  </si>
+  <si>
+    <t>2 420</t>
+  </si>
+  <si>
+    <t>2 387</t>
+  </si>
+  <si>
+    <r>
+      <t>Число амбулаторно-поликлинических организаций</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Мощность амбулаторно-поликлинических организаций</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,  посещений в смену:</t>
+    </r>
+  </si>
+  <si>
+    <t>21 884</t>
+  </si>
+  <si>
+    <t>13 099</t>
+  </si>
+  <si>
+    <t>22 607</t>
+  </si>
+  <si>
+    <t>21 438</t>
+  </si>
+  <si>
+    <t>13 046</t>
+  </si>
+  <si>
+    <t>22 456</t>
   </si>
   <si>
     <r>
@@ -380,20 +453,23 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>3)</t>
-    </r>
-  </si>
-  <si>
-    <t>14 517,1</t>
-  </si>
-  <si>
-    <t>12 459,8</t>
-  </si>
-  <si>
-    <t>17 647,6</t>
-  </si>
-  <si>
-    <t>Удельный вес инвестиций в основной капитал, финансируемых за счет бюджетных средств, в общем объеме инвестиций, процентов</t>
+      <t>5)</t>
+    </r>
+  </si>
+  <si>
+    <t>Инвестиции в основной капитал (в фактически действовавших ценах), млн руб.</t>
+  </si>
+  <si>
+    <t>7 106,4</t>
+  </si>
+  <si>
+    <t>5 685,4</t>
+  </si>
+  <si>
+    <t>10 434,3</t>
+  </si>
+  <si>
+    <t>Удельный вес инвестиций в основной капитал, финансируемых за счет бюджетных средств, в общем объеме инвестиций,  процентов</t>
   </si>
   <si>
     <r>
@@ -408,7 +484,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>4);5)</t>
+      <t>6);7)</t>
     </r>
     <r>
       <rPr>
@@ -422,13 +498,13 @@
     </r>
   </si>
   <si>
-    <t>102 981,2</t>
-  </si>
-  <si>
-    <t>112 803,5</t>
-  </si>
-  <si>
-    <t>122 709,2</t>
+    <t>86 325,8</t>
+  </si>
+  <si>
+    <t>95 823,6</t>
+  </si>
+  <si>
+    <t>105 767,4</t>
   </si>
   <si>
     <r>
@@ -443,7 +519,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>4)</t>
+      <t>6)</t>
     </r>
     <r>
       <rPr>
@@ -457,13 +533,13 @@
     </r>
   </si>
   <si>
-    <t>7 132,3</t>
-  </si>
-  <si>
-    <t>14 610,3</t>
-  </si>
-  <si>
-    <t>12 042,6</t>
+    <t>10 722,3</t>
+  </si>
+  <si>
+    <t>7 372,6</t>
+  </si>
+  <si>
+    <t>7 888,9</t>
   </si>
   <si>
     <r>
@@ -478,7 +554,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>6)</t>
+      <t>8)</t>
     </r>
     <r>
       <rPr>
@@ -504,7 +580,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>6)</t>
+      <t>8)</t>
     </r>
     <r>
       <rPr>
@@ -518,16 +594,16 @@
     </r>
   </si>
   <si>
-    <t>Число предприятий и организаций (на конец года; по данным  государственной регистрации)</t>
-  </si>
-  <si>
-    <t>6 131</t>
-  </si>
-  <si>
-    <t>5 298</t>
-  </si>
-  <si>
-    <t>5 283</t>
+    <t>Число предприятий и организаций (на конец года;  по данным государственной регистрации)</t>
+  </si>
+  <si>
+    <t>2 969</t>
+  </si>
+  <si>
+    <t>2 816</t>
+  </si>
+  <si>
+    <t>2 654</t>
   </si>
   <si>
     <r>
@@ -543,12 +619,33 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Объем отгруженных товаров собственного производства, выполненных работ и услуг собственными силами</t>
+      <t>2)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем отгруженных товаров собственного производства, выполненных работ и услуг собственными силами   по видам экономической деятельности, млн руб.: </t>
+  </si>
+  <si>
+    <t>9 126,0</t>
+  </si>
+  <si>
+    <t>8 579,1</t>
+  </si>
+  <si>
+    <t>12 492,2</t>
+  </si>
+  <si>
+    <t>3 366,8</t>
+  </si>
+  <si>
+    <t>3 354,5</t>
+  </si>
+  <si>
+    <t>4 163,2</t>
+  </si>
+  <si>
+    <r>
+      <t>Объем работ, выполненных по виду экономической деятельности «Строительство»</t>
     </r>
     <r>
       <rPr>
@@ -559,42 +656,37 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">по видам </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">экономической </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>деятельности, млн руб.:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>…</t>
+      <t xml:space="preserve">5) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(в фактически действовавших ценах), млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 901,7</t>
+  </si>
+  <si>
+    <t>2 169,0</t>
+  </si>
+  <si>
+    <t>1 312</t>
+  </si>
+  <si>
+    <t>дошкольных образовательных учреждений, мест</t>
+  </si>
+  <si>
+    <t>общеобразовательных организаций, ученических мест</t>
+  </si>
+  <si>
+    <r>
+      <t>торгово-офисных  центров, тыс. м</t>
     </r>
     <r>
       <rPr>
@@ -605,102 +697,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>7)</t>
-    </r>
-  </si>
-  <si>
-    <t>7 440,3</t>
-  </si>
-  <si>
-    <t>8 495,8</t>
-  </si>
-  <si>
-    <t>9 521,9</t>
-  </si>
-  <si>
-    <t>обеспечение электрической энергией, газом и паром;  кондиционирование воздуха</t>
-  </si>
-  <si>
-    <t>4 944,5</t>
-  </si>
-  <si>
-    <t>5 740,5</t>
-  </si>
-  <si>
-    <t>5 582,0</t>
-  </si>
-  <si>
-    <t>водоснабжение; водоотведение, организация сбора  и утилизации отходов, деятельность по ликвидации  загрязнений</t>
-  </si>
-  <si>
-    <r>
-      <t>Объем работ, выполненных по виду экономической деятельности «Строительство»</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">3) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(в фактически действовавших  ценах), млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ввод в действие жилых домов, тыс. м</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>общей площади жилых помещений</t>
-    </r>
-  </si>
-  <si>
-    <t>2 620</t>
-  </si>
-  <si>
-    <t>3 240</t>
-  </si>
-  <si>
-    <t>3 698</t>
-  </si>
-  <si>
-    <t>дошкольных организаций, мест</t>
-  </si>
-  <si>
-    <t>1 224</t>
-  </si>
-  <si>
-    <t>амбулаторно-поликлинических организаций,  посещений смену</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> общей площади</t>
+    </r>
+  </si>
+  <si>
+    <t>амбулаторно-поликлинических организаций, посещений  в смену</t>
   </si>
   <si>
     <r>
@@ -716,26 +727,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>3)</t>
-    </r>
-  </si>
-  <si>
-    <t>12 441,8</t>
-  </si>
-  <si>
-    <t>12 614,1</t>
-  </si>
-  <si>
-    <t>15 544,5</t>
-  </si>
-  <si>
-    <t>в 3 р.</t>
-  </si>
-  <si>
-    <t>в 5,1 р.</t>
-  </si>
-  <si>
-    <t>в 2,9 р.</t>
+      <t>2);10)</t>
+    </r>
+  </si>
+  <si>
+    <t>Оборот розничной торговли (в фактически действовавших  ценах), млн руб.</t>
+  </si>
+  <si>
+    <t>8 117,7</t>
+  </si>
+  <si>
+    <t>8 401,6</t>
+  </si>
+  <si>
+    <t>10 173,3</t>
+  </si>
+  <si>
+    <t>Оборот общественного питания (в фактически действовавших ценах), млн руб.</t>
+  </si>
+  <si>
+    <t>Индекс физического объема оборота общественного питания,  в процентах к предыдущему году</t>
   </si>
   <si>
     <r>
@@ -749,27 +760,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> По городскому округу.</t>
+      <t> 2019, 2020 гг. –  мужчины в возрасте 16 – 60 лет, женщины 16 – 55 лет; 2021 г. –  мужчины в возрасте 16 – 61 лет, женщины 16 – 56 лет.</t>
     </r>
   </si>
   <si>
     <r>
       <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> 2019, 2020 гг. –  мужчины в возрасте 16 – 60 лет, женщины 16 – 55 лет; 2021 г. –  мужчины в возрасте 16 – 61 лет, женщины 16 – 56 лет.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3)</t>
     </r>
     <r>
       <rPr>
@@ -794,6 +790,21 @@
   </si>
   <si>
     <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> По данным Отделения Пенсионного фонда Российской Федерации по Карачаево-Черкесской Республике.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>4)</t>
     </r>
     <r>
@@ -804,7 +815,52 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> По</t>
+      <t> По данным Министерства здравоохранения по Карачаево-Черкесской Республике. Без микропредприятий.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> Без субъектов малого предпринимательства и объемов, не наблюдаемых прямыми статистическими методами.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> По полной учетной стоимости; по коммерческим (без субъектов малого предпринимательства) и некоммерческим организациям.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -814,12 +870,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> полной учетной стоимости; по коммерческим (без субъектов малого предпринимательства) и некоммерческим организациям.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5)</t>
+      <t>С учетом переоценки, проведенной на конец года коммерческими (без субъектов малого предпринимательства)</t>
     </r>
     <r>
       <rPr>
@@ -829,7 +880,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> и некоммерческими организациями</t>
     </r>
     <r>
       <rPr>
@@ -839,7 +890,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>С учетом переоценки, проведенной на конец года коммерческими (без субъектов малого предпринимательства)</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8)</t>
     </r>
     <r>
       <rPr>
@@ -849,22 +905,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> и некоммерческими организациями</t>
+      <t> По коммерческим организациям, без субъектов малого предпринимательства.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9)</t>
     </r>
     <r>
       <rPr>
         <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6)</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> Данные не публикуются в целях обеспечения конфиденциальности первичных статистических данных, полученных от организаций, в соответствии с Федеральным законом от 29 ноября 2007 г. №282-ФЗ «Об официальном статистическом учете и системе государственной статистики в Российской Федерации» (п.5 ст.4, ч.1 ст.9).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10)</t>
     </r>
     <r>
       <rPr>
@@ -874,26 +935,11 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> По коммерческим организациям, без субъектов малого предпринимательства.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Данные не публикуются в целях обеспечения конфиденциальности первичных статистических данных, полученных от организаций, в соответствии с Федеральным законом от 29 ноября 2007 г. №282-ФЗ «Об официальном статистическом учете и системе государственной статистики в Российской Федерации» (п.5 ст.4, ч.1 ст.9).</t>
-    </r>
-  </si>
-  <si>
-    <t>Нальчик</t>
+      <t xml:space="preserve"> Без учета оценки объемов сокрытого оборота. </t>
+    </r>
+  </si>
+  <si>
+    <t>Черкесск</t>
   </si>
 </sst>
 </file>
@@ -901,9 +947,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,14 +989,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -974,22 +1012,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1169,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1195,82 +1217,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1577,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,16 +1600,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6">
         <v>2019</v>
@@ -1612,696 +1622,696 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="16">
-        <v>265.60000000000002</v>
-      </c>
-      <c r="C4" s="16">
-        <v>265.10000000000002</v>
-      </c>
-      <c r="D4" s="17">
-        <v>265.60000000000002</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="17">
+        <v>123.2</v>
+      </c>
+      <c r="C4" s="17">
+        <v>123.1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>122.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16">
-        <v>49.1</v>
-      </c>
-      <c r="C6" s="16">
-        <v>49.2</v>
-      </c>
-      <c r="D6" s="17">
-        <v>49.1</v>
+      <c r="B6" s="17">
+        <v>23.8</v>
+      </c>
+      <c r="C6" s="17">
+        <v>23.8</v>
+      </c>
+      <c r="D6" s="18">
+        <v>23.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16">
-        <v>19.3</v>
-      </c>
-      <c r="C7" s="16">
-        <v>18.8</v>
-      </c>
-      <c r="D7" s="17">
-        <v>18.3</v>
+      <c r="B7" s="17">
+        <v>8.9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D7" s="18">
+        <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="16">
-        <v>157.30000000000001</v>
-      </c>
-      <c r="C8" s="16">
-        <v>155.19999999999999</v>
-      </c>
-      <c r="D8" s="17">
-        <v>158.30000000000001</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="17">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C8" s="17">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D8" s="18">
+        <v>69.7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16">
-        <v>59.2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>60.7</v>
-      </c>
-      <c r="D9" s="17">
-        <v>58.2</v>
+      <c r="B9" s="17">
+        <v>30.4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>30.9</v>
+      </c>
+      <c r="D9" s="18">
+        <v>29.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="16">
-        <v>10.5</v>
-      </c>
-      <c r="C10" s="16">
-        <v>11</v>
-      </c>
-      <c r="D10" s="17">
-        <v>10.7</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="17">
+        <v>11.4</v>
+      </c>
+      <c r="C10" s="17">
+        <v>11.2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="16">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="D11" s="17">
-        <v>10.6</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="17">
+        <v>9.4</v>
+      </c>
+      <c r="C11" s="17">
+        <v>11.5</v>
+      </c>
+      <c r="D11" s="18">
+        <v>13.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.1</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17">
+        <v>-0.3</v>
+      </c>
+      <c r="D12" s="18">
+        <v>-3.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="18">
-        <v>231</v>
-      </c>
-      <c r="C13" s="18">
-        <v>-891</v>
-      </c>
-      <c r="D13" s="19">
-        <v>496</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="21">
+        <v>126</v>
+      </c>
+      <c r="C13" s="21">
+        <v>32</v>
+      </c>
+      <c r="D13" s="22">
+        <v>-140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="16">
-        <v>54.3</v>
-      </c>
-      <c r="C15" s="16">
-        <v>54.6</v>
-      </c>
-      <c r="D15" s="17">
-        <v>55.1</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="17">
+        <v>31.9</v>
+      </c>
+      <c r="C15" s="17">
+        <v>30.2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>29.4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="18">
-        <v>1030</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B16" s="21">
+        <v>616</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="22">
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>53</v>
+      <c r="B17" s="21">
+        <v>430</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="22">
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="16">
-        <v>63.9</v>
-      </c>
-      <c r="C21" s="16">
-        <v>63.1</v>
-      </c>
-      <c r="D21" s="17">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="17">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C21" s="17">
+        <v>35.4</v>
+      </c>
+      <c r="D21" s="18">
+        <v>34.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="16">
-        <v>21.7</v>
-      </c>
-      <c r="C22" s="16">
-        <v>22.6</v>
-      </c>
-      <c r="D22" s="17">
-        <v>23.9</v>
+        <v>34</v>
+      </c>
+      <c r="B22" s="17">
+        <v>25.7</v>
+      </c>
+      <c r="C22" s="17">
+        <v>26.2</v>
+      </c>
+      <c r="D22" s="18">
+        <v>26.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="16">
-        <v>14.4</v>
-      </c>
-      <c r="C23" s="16">
-        <v>14.6</v>
-      </c>
-      <c r="D23" s="17">
-        <v>16.3</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="17">
+        <v>5.3</v>
+      </c>
+      <c r="C23" s="17">
+        <v>5.4</v>
+      </c>
+      <c r="D23" s="18">
+        <v>5.6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="16">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C24" s="16">
-        <v>16.5</v>
-      </c>
-      <c r="D24" s="17">
-        <v>16.5</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="C24" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="D24" s="18">
+        <v>6.1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>66</v>
+      <c r="B26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16">
-        <v>99.3</v>
-      </c>
-      <c r="C27" s="16">
-        <v>101.7</v>
-      </c>
-      <c r="D27" s="17">
-        <v>102.1</v>
+      <c r="B27" s="21">
+        <v>97</v>
+      </c>
+      <c r="C27" s="21">
+        <v>91</v>
+      </c>
+      <c r="D27" s="22">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>67</v>
+      <c r="B29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="16">
-        <v>193.8</v>
-      </c>
-      <c r="C30" s="16">
-        <v>197.3</v>
-      </c>
-      <c r="D30" s="17">
-        <v>193.8</v>
+      <c r="B30" s="21">
+        <v>220</v>
+      </c>
+      <c r="C30" s="21">
+        <v>197</v>
+      </c>
+      <c r="D30" s="22">
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="18">
-        <v>19</v>
-      </c>
-      <c r="C31" s="18">
-        <v>19</v>
-      </c>
-      <c r="D31" s="19">
-        <v>19</v>
+      <c r="B31" s="21">
+        <v>10</v>
+      </c>
+      <c r="C31" s="21">
+        <v>10</v>
+      </c>
+      <c r="D31" s="22">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="16">
-        <v>4.7</v>
-      </c>
-      <c r="C33" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="D33" s="17">
-        <v>4.2</v>
+      <c r="B33" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1.9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="16">
-        <v>176.5</v>
-      </c>
-      <c r="C34" s="16">
-        <v>169.4</v>
-      </c>
-      <c r="D34" s="17">
-        <v>158.4</v>
+      <c r="B34" s="21">
+        <v>146</v>
+      </c>
+      <c r="C34" s="21">
+        <v>190</v>
+      </c>
+      <c r="D34" s="22">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="18">
-        <v>38</v>
-      </c>
-      <c r="C35" s="18">
-        <v>40</v>
-      </c>
-      <c r="D35" s="19">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="B35" s="21">
+        <v>15</v>
+      </c>
+      <c r="C35" s="21">
+        <v>15</v>
+      </c>
+      <c r="D35" s="22">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="16">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C37" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="D37" s="17">
-        <v>10.199999999999999</v>
+      <c r="B37" s="17">
+        <v>3.9</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="D37" s="18">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="16">
-        <v>330.8</v>
-      </c>
-      <c r="C38" s="16">
-        <v>357.6</v>
-      </c>
-      <c r="D38" s="17">
-        <v>383.7</v>
+      <c r="B38" s="21">
+        <v>317</v>
+      </c>
+      <c r="C38" s="21">
+        <v>301</v>
+      </c>
+      <c r="D38" s="22">
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>71</v>
+      <c r="B39" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>74</v>
+      <c r="B41" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="18">
-        <v>844</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>76</v>
+      <c r="B42" s="21">
+        <v>446</v>
+      </c>
+      <c r="C42" s="21">
+        <v>53</v>
+      </c>
+      <c r="D42" s="22">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
+      <c r="A43" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="16">
-        <v>68.3</v>
-      </c>
-      <c r="C45" s="16">
-        <v>73.7</v>
-      </c>
-      <c r="D45" s="17">
-        <v>74.099999999999994</v>
+        <v>76</v>
+      </c>
+      <c r="B45" s="17">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C45" s="17">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D45" s="18">
+        <v>74.8</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="16">
-        <v>47.3</v>
-      </c>
-      <c r="C47" s="16">
-        <v>27.6</v>
-      </c>
-      <c r="D47" s="17">
-        <v>54</v>
+      <c r="B47" s="17">
+        <v>55.3</v>
+      </c>
+      <c r="C47" s="17">
+        <v>49.6</v>
+      </c>
+      <c r="D47" s="18">
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="16">
-        <v>21</v>
-      </c>
-      <c r="C48" s="16">
-        <v>46.1</v>
-      </c>
-      <c r="D48" s="17">
-        <v>20.100000000000001</v>
+      <c r="B48" s="17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C48" s="17">
+        <v>15.4</v>
+      </c>
+      <c r="D48" s="18">
+        <v>5.4</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
+      <c r="A49" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="16">
-        <v>59</v>
-      </c>
-      <c r="C52" s="16">
-        <v>55.5</v>
-      </c>
-      <c r="D52" s="17">
-        <v>60.9</v>
+        <v>85</v>
+      </c>
+      <c r="B52" s="17">
+        <v>54.1</v>
+      </c>
+      <c r="C52" s="17">
+        <v>54.8</v>
+      </c>
+      <c r="D52" s="18">
+        <v>52.9</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="16">
-        <v>23.5</v>
-      </c>
-      <c r="C53" s="16">
-        <v>24.4</v>
-      </c>
-      <c r="D53" s="17">
-        <v>35.200000000000003</v>
+        <v>86</v>
+      </c>
+      <c r="B53" s="17">
+        <v>22.2</v>
+      </c>
+      <c r="C53" s="17">
+        <v>25.6</v>
+      </c>
+      <c r="D53" s="18">
+        <v>20.7</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
+      <c r="A56" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="C58" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2309,281 +2319,307 @@
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>101</v>
+      <c r="B59" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>105</v>
+        <v>37</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="16">
-        <v>504.4</v>
-      </c>
-      <c r="C61" s="16">
-        <v>468</v>
-      </c>
-      <c r="D61" s="17">
-        <v>458.8</v>
+        <v>38</v>
+      </c>
+      <c r="B61" s="17">
+        <v>405</v>
+      </c>
+      <c r="C61" s="17">
+        <v>422.2</v>
+      </c>
+      <c r="D61" s="18">
+        <v>387.6</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" s="16">
-        <v>384.3</v>
-      </c>
-      <c r="C63" s="16">
-        <v>326.7</v>
-      </c>
-      <c r="D63" s="17">
-        <v>622</v>
+        <v>99</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="18">
+        <v>894.7</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="16">
-        <v>282.3</v>
-      </c>
-      <c r="C64" s="16">
-        <v>289.89999999999998</v>
-      </c>
-      <c r="D64" s="17">
-        <v>318.3</v>
+        <v>39</v>
+      </c>
+      <c r="B64" s="17">
+        <v>127.6</v>
+      </c>
+      <c r="C64" s="17">
+        <v>57.8</v>
+      </c>
+      <c r="D64" s="18">
+        <v>93.7</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>111</v>
+        <v>29</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="17">
+        <v>467</v>
+      </c>
+      <c r="D65" s="18">
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="18">
-        <v>340</v>
-      </c>
-      <c r="C67" s="18">
-        <v>520</v>
-      </c>
-      <c r="D67" s="19">
+        <v>103</v>
+      </c>
+      <c r="B67" s="21">
         <v>60</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="22">
+        <v>560</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="21">
+        <v>400</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="21">
+        <v>1</v>
+      </c>
+      <c r="C69" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="21">
+        <v>30</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>21</v>
+      <c r="D70" s="22">
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="16">
-        <v>100.5</v>
-      </c>
-      <c r="C73" s="16">
-        <v>96.8</v>
-      </c>
-      <c r="D73" s="17">
-        <v>113.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="17">
+        <v>87.5</v>
+      </c>
+      <c r="C73" s="17">
+        <v>99.6</v>
+      </c>
+      <c r="D73" s="18">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="16">
-        <v>25</v>
-      </c>
-      <c r="C74" s="16">
-        <v>125.4</v>
-      </c>
-      <c r="D74" s="17">
-        <v>384.2</v>
+        <v>112</v>
+      </c>
+      <c r="B74" s="17">
+        <v>23.8</v>
+      </c>
+      <c r="C74" s="17">
+        <v>366.1</v>
+      </c>
+      <c r="D74" s="18">
+        <v>214.2</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="19">
+        <v>73.8</v>
+      </c>
+      <c r="C75" s="19">
+        <v>141.9</v>
+      </c>
+      <c r="D75" s="20">
+        <v>559.20000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+    </row>
+    <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-    </row>
-    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-    </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-    </row>
-    <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-    </row>
-    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
@@ -2593,6 +2629,9 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A82:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
